--- a/raw_data/20200818_saline/20200818_Sensor3_Test_55.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_55.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9417AA-7A3F-40A6-B125-F1A1AE512D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>49160.264664</v>
+        <v>49160.264664000002</v>
       </c>
       <c r="B2" s="1">
-        <v>13.655629</v>
+        <v>13.655628999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1148.380000</v>
+        <v>1148.3800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.415000</v>
+        <v>-257.41500000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>49170.304187</v>
+        <v>49170.304187000002</v>
       </c>
       <c r="G2" s="1">
-        <v>13.658418</v>
+        <v>13.658417999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1170.020000</v>
+        <v>1170.02</v>
       </c>
       <c r="I2" s="1">
-        <v>-215.803000</v>
+        <v>-215.803</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>49181.070845</v>
+        <v>49181.070845000002</v>
       </c>
       <c r="L2" s="1">
-        <v>13.661409</v>
+        <v>13.661409000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1197.470000</v>
+        <v>1197.47</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.193000</v>
+        <v>-150.19300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>49191.288960</v>
+        <v>49191.288959999998</v>
       </c>
       <c r="Q2" s="1">
         <v>13.664247</v>
       </c>
       <c r="R2" s="1">
-        <v>1205.310000</v>
+        <v>1205.31</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.971000</v>
+        <v>-127.971</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>49201.827426</v>
+        <v>49201.827426000003</v>
       </c>
       <c r="V2" s="1">
-        <v>13.667174</v>
+        <v>13.667173999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.198000</v>
+        <v>-107.19799999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>49212.264280</v>
+        <v>49212.264280000003</v>
       </c>
       <c r="AA2" s="1">
         <v>13.670073</v>
       </c>
       <c r="AB2" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.371000</v>
+        <v>-90.370999999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>49223.195577</v>
+        <v>49223.195576999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>13.673110</v>
+        <v>13.673109999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1224.310000</v>
+        <v>1224.31</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.936700</v>
+        <v>-85.936700000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>49233.657720</v>
+        <v>49233.657720000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.676016</v>
+        <v>13.676016000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.592600</v>
+        <v>-89.592600000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>49244.890090</v>
+        <v>49244.890090000001</v>
       </c>
       <c r="AP2" s="1">
         <v>13.679136</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1239.250000</v>
+        <v>1239.25</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.811000</v>
+        <v>-101.81100000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>49255.878459</v>
@@ -616,240 +1032,240 @@
         <v>13.682188</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.300000</v>
+        <v>1249.3</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.427000</v>
+        <v>-121.42700000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>49267.029051</v>
+        <v>49267.029050999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.685286</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.830000</v>
+        <v>1257.83</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.119000</v>
+        <v>-139.119</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>49278.013421</v>
+        <v>49278.013421000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>13.688337</v>
+        <v>13.688337000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1298.260000</v>
+        <v>1298.26</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.809000</v>
+        <v>-221.809</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>49289.350974</v>
+        <v>49289.350974000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>13.691486</v>
+        <v>13.691485999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.391000</v>
+        <v>-359.39100000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>49300.768910</v>
+        <v>49300.768909999999</v>
       </c>
       <c r="BO2" s="1">
         <v>13.694658</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.090000</v>
+        <v>1483.09</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-583.570000</v>
+        <v>-583.57000000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>49311.602035</v>
+        <v>49311.602035000004</v>
       </c>
       <c r="BT2" s="1">
-        <v>13.697667</v>
+        <v>13.697666999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1615.370000</v>
+        <v>1615.37</v>
       </c>
       <c r="BV2" s="1">
-        <v>-836.850000</v>
+        <v>-836.85</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>49322.268498</v>
+        <v>49322.268497999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>13.700630</v>
+        <v>13.70063</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1769.300000</v>
+        <v>1769.3</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1112.750000</v>
+        <v>-1112.75</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>49333.268953</v>
+        <v>49333.268952999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.703686</v>
+        <v>13.703685999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2191.930000</v>
+        <v>2191.9299999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1782.470000</v>
+        <v>-1782.47</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>49160.697671</v>
+        <v>49160.697671000002</v>
       </c>
       <c r="B3" s="1">
         <v>13.655749</v>
       </c>
       <c r="C3" s="1">
-        <v>1148.730000</v>
+        <v>1148.73</v>
       </c>
       <c r="D3" s="1">
-        <v>-257.594000</v>
+        <v>-257.59399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>49171.029339</v>
+        <v>49171.029339000001</v>
       </c>
       <c r="G3" s="1">
         <v>13.658619</v>
       </c>
       <c r="H3" s="1">
-        <v>1171.240000</v>
+        <v>1171.24</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.550000</v>
+        <v>-215.55</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>49181.179965</v>
+        <v>49181.179965000003</v>
       </c>
       <c r="L3" s="1">
         <v>13.661439</v>
       </c>
       <c r="M3" s="1">
-        <v>1197.760000</v>
+        <v>1197.76</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.147000</v>
+        <v>-150.14699999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>49191.646047</v>
+        <v>49191.646047000002</v>
       </c>
       <c r="Q3" s="1">
         <v>13.664346</v>
       </c>
       <c r="R3" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.925000</v>
+        <v>-127.925</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>49202.194961</v>
+        <v>49202.194961000001</v>
       </c>
       <c r="V3" s="1">
-        <v>13.667276</v>
+        <v>13.667275999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.174000</v>
+        <v>-107.17400000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>49212.649139</v>
+        <v>49212.649139000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>13.670180</v>
+        <v>13.67018</v>
       </c>
       <c r="AB3" s="1">
-        <v>1219.750000</v>
+        <v>1219.75</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.367400</v>
+        <v>-90.367400000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>49223.919268</v>
+        <v>49223.919267999998</v>
       </c>
       <c r="AF3" s="1">
         <v>13.673311</v>
       </c>
       <c r="AG3" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.928900</v>
+        <v>-85.928899999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>49234.390776</v>
       </c>
       <c r="AK3" s="1">
-        <v>13.676220</v>
+        <v>13.676220000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.573700</v>
+        <v>-89.573700000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>49245.282455</v>
@@ -858,195 +1274,195 @@
         <v>13.679245</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1239.250000</v>
+        <v>1239.25</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.785000</v>
+        <v>-101.785</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>49256.249002</v>
+        <v>49256.249001999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>13.682291</v>
+        <v>13.682290999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.407000</v>
+        <v>-121.407</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>49267.420860</v>
+        <v>49267.420859999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>13.685395</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.116000</v>
+        <v>-139.11600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>49278.718237</v>
+        <v>49278.718237000001</v>
       </c>
       <c r="BE3" s="1">
         <v>13.688533</v>
       </c>
       <c r="BF3" s="1">
-        <v>1298.250000</v>
+        <v>1298.25</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.817000</v>
+        <v>-221.81700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>49289.814734</v>
       </c>
       <c r="BJ3" s="1">
-        <v>13.691615</v>
+        <v>13.691615000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.376000</v>
+        <v>-359.37599999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>49300.892880</v>
+        <v>49300.892879999999</v>
       </c>
       <c r="BO3" s="1">
         <v>13.694692</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-583.655000</v>
+        <v>-583.65499999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>49312.064800</v>
+        <v>49312.0648</v>
       </c>
       <c r="BT3" s="1">
         <v>13.697796</v>
       </c>
       <c r="BU3" s="1">
-        <v>1615.440000</v>
+        <v>1615.44</v>
       </c>
       <c r="BV3" s="1">
-        <v>-836.789000</v>
+        <v>-836.78899999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>49322.749617</v>
+        <v>49322.749617000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>13.700764</v>
+        <v>13.700763999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1769.260000</v>
+        <v>1769.26</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1112.730000</v>
+        <v>-1112.73</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>49333.862948</v>
+        <v>49333.862948000002</v>
       </c>
       <c r="CD3" s="1">
         <v>13.703851</v>
       </c>
       <c r="CE3" s="1">
-        <v>2190.960000</v>
+        <v>2190.96</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1780.430000</v>
+        <v>-1780.43</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>49160.968488</v>
+        <v>49160.968487999999</v>
       </c>
       <c r="B4" s="1">
         <v>13.655825</v>
       </c>
       <c r="C4" s="1">
-        <v>1148.700000</v>
+        <v>1148.7</v>
       </c>
       <c r="D4" s="1">
-        <v>-257.393000</v>
+        <v>-257.39299999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>49171.375546</v>
+        <v>49171.375546000003</v>
       </c>
       <c r="G4" s="1">
-        <v>13.658715</v>
+        <v>13.658715000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.530000</v>
+        <v>1170.53</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.441000</v>
+        <v>-215.441</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>49181.517772</v>
+        <v>49181.517771999999</v>
       </c>
       <c r="L4" s="1">
         <v>13.661533</v>
       </c>
       <c r="M4" s="1">
-        <v>1197.650000</v>
+        <v>1197.6500000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.100000</v>
+        <v>-150.1</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>49191.993742</v>
+        <v>49191.993741999999</v>
       </c>
       <c r="Q4" s="1">
         <v>13.664443</v>
       </c>
       <c r="R4" s="1">
-        <v>1205.430000</v>
+        <v>1205.43</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.017000</v>
+        <v>-128.017</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>49202.544145</v>
@@ -1055,467 +1471,467 @@
         <v>13.667373</v>
       </c>
       <c r="W4" s="1">
-        <v>1212.590000</v>
+        <v>1212.5899999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.180000</v>
+        <v>-107.18</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>49213.349522</v>
+        <v>49213.349521999997</v>
       </c>
       <c r="AA4" s="1">
         <v>13.670375</v>
       </c>
       <c r="AB4" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.148500</v>
+        <v>-90.148499999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>49224.262996</v>
+        <v>49224.262995999998</v>
       </c>
       <c r="AF4" s="1">
         <v>13.673406</v>
       </c>
       <c r="AG4" s="1">
-        <v>1224.310000</v>
+        <v>1224.31</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.909600</v>
+        <v>-85.909599999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>49234.739958</v>
+        <v>49234.739957999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>13.676317</v>
+        <v>13.676316999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1231.320000</v>
+        <v>1231.32</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.603400</v>
+        <v>-89.603399999999993</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>49245.663847</v>
+        <v>49245.663847000003</v>
       </c>
       <c r="AP4" s="1">
         <v>13.679351</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1239.270000</v>
+        <v>1239.27</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.832000</v>
+        <v>-101.83199999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>49256.929017</v>
+        <v>49256.929017000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.682480</v>
+        <v>13.68248</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.440000</v>
+        <v>-121.44</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>49268.085499</v>
+        <v>49268.085499000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>13.685579</v>
+        <v>13.685579000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.121000</v>
+        <v>-139.12100000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>49279.149299</v>
+        <v>49279.149298999997</v>
       </c>
       <c r="BE4" s="1">
         <v>13.688653</v>
       </c>
       <c r="BF4" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.830000</v>
+        <v>-221.83</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>49290.218973</v>
+        <v>49290.218973000003</v>
       </c>
       <c r="BJ4" s="1">
         <v>13.691727</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.432000</v>
+        <v>-359.43200000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>49301.303071</v>
+        <v>49301.303071000002</v>
       </c>
       <c r="BO4" s="1">
         <v>13.694806</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.170000</v>
+        <v>1483.17</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-583.612000</v>
+        <v>-583.61199999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>49312.477936</v>
+        <v>49312.477936000003</v>
       </c>
       <c r="BT4" s="1">
         <v>13.697911</v>
       </c>
       <c r="BU4" s="1">
-        <v>1615.550000</v>
+        <v>1615.55</v>
       </c>
       <c r="BV4" s="1">
-        <v>-836.697000</v>
+        <v>-836.697</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>49323.180146</v>
+        <v>49323.180145999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>13.700883</v>
+        <v>13.700882999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1769.150000</v>
+        <v>1769.15</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1112.660000</v>
+        <v>-1112.6600000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>49334.402379</v>
+        <v>49334.402378999999</v>
       </c>
       <c r="CD4" s="1">
         <v>13.704001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2190.460000</v>
+        <v>2190.46</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1783.230000</v>
+        <v>-1783.23</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>49161.311720</v>
+        <v>49161.311719999998</v>
       </c>
       <c r="B5" s="1">
-        <v>13.655920</v>
+        <v>13.65592</v>
       </c>
       <c r="C5" s="1">
-        <v>1148.680000</v>
+        <v>1148.68</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.727000</v>
+        <v>-257.72699999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>49171.716813</v>
+        <v>49171.716812999999</v>
       </c>
       <c r="G5" s="1">
-        <v>13.658810</v>
+        <v>13.658810000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1170.340000</v>
+        <v>1170.3399999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.994000</v>
+        <v>-215.994</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>49181.862957</v>
+        <v>49181.862956999998</v>
       </c>
       <c r="L5" s="1">
         <v>13.661629</v>
       </c>
       <c r="M5" s="1">
-        <v>1197.710000</v>
+        <v>1197.71</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.004000</v>
+        <v>-150.00399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>49192.691613</v>
+        <v>49192.691613000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>13.664637</v>
+        <v>13.664637000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.008000</v>
+        <v>-128.00800000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>49203.230680</v>
+        <v>49203.230680000001</v>
       </c>
       <c r="V5" s="1">
         <v>13.667564</v>
       </c>
       <c r="W5" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.051000</v>
+        <v>-107.051</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>49213.694738</v>
+        <v>49213.694737999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.670471</v>
+        <v>13.670470999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1219.660000</v>
+        <v>1219.6600000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.309200</v>
+        <v>-90.309200000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>49224.605235</v>
+        <v>49224.605235000003</v>
       </c>
       <c r="AF5" s="1">
         <v>13.673501</v>
       </c>
       <c r="AG5" s="1">
-        <v>1224.290000</v>
+        <v>1224.29</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.970100</v>
+        <v>-85.970100000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>49235.085708</v>
+        <v>49235.085707999999</v>
       </c>
       <c r="AK5" s="1">
         <v>13.676413</v>
       </c>
       <c r="AL5" s="1">
-        <v>1231.320000</v>
+        <v>1231.32</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.598400</v>
+        <v>-89.598399999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>49246.327496</v>
+        <v>49246.327495999998</v>
       </c>
       <c r="AP5" s="1">
         <v>13.679535</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1239.270000</v>
+        <v>1239.27</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.803000</v>
+        <v>-101.803</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>49257.364008</v>
+        <v>49257.364007999997</v>
       </c>
       <c r="AU5" s="1">
         <v>13.682601</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.420000</v>
+        <v>-121.42</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>49268.524810</v>
+        <v>49268.524810000003</v>
       </c>
       <c r="AZ5" s="1">
         <v>13.685701</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.820000</v>
+        <v>1257.82</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.142000</v>
+        <v>-139.142</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>49279.509882</v>
+        <v>49279.509881999998</v>
       </c>
       <c r="BE5" s="1">
         <v>13.688753</v>
       </c>
       <c r="BF5" s="1">
-        <v>1298.260000</v>
+        <v>1298.26</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.830000</v>
+        <v>-221.83</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>49290.586508</v>
       </c>
       <c r="BJ5" s="1">
-        <v>13.691830</v>
+        <v>13.69183</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.435000</v>
+        <v>-359.435</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>49301.696399</v>
       </c>
       <c r="BO5" s="1">
-        <v>13.694916</v>
+        <v>13.694915999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-583.634000</v>
+        <v>-583.63400000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>49312.898088</v>
+        <v>49312.898088000002</v>
       </c>
       <c r="BT5" s="1">
         <v>13.698027</v>
       </c>
       <c r="BU5" s="1">
-        <v>1615.540000</v>
+        <v>1615.54</v>
       </c>
       <c r="BV5" s="1">
-        <v>-836.671000</v>
+        <v>-836.67100000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>49323.600757</v>
       </c>
       <c r="BY5" s="1">
-        <v>13.701000</v>
+        <v>13.701000000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1769.260000</v>
+        <v>1769.26</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1112.710000</v>
+        <v>-1112.71</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>49334.940294</v>
       </c>
       <c r="CD5" s="1">
-        <v>13.704150</v>
+        <v>13.70415</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.670000</v>
+        <v>2192.67</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1780.820000</v>
+        <v>-1780.82</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>49161.653958</v>
+        <v>49161.653958000003</v>
       </c>
       <c r="B6" s="1">
         <v>13.656015</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.570000</v>
+        <v>1148.57</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.565000</v>
+        <v>-257.565</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>49172.404747</v>
@@ -1524,28 +1940,28 @@
         <v>13.659001</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.670000</v>
+        <v>1170.67</v>
       </c>
       <c r="I6" s="1">
-        <v>-216.517000</v>
+        <v>-216.517</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>49182.554380</v>
+        <v>49182.554380000001</v>
       </c>
       <c r="L6" s="1">
         <v>13.661821</v>
       </c>
       <c r="M6" s="1">
-        <v>1197.740000</v>
+        <v>1197.74</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.082000</v>
+        <v>-150.08199999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>49193.039309</v>
@@ -1554,725 +1970,725 @@
         <v>13.664733</v>
       </c>
       <c r="R6" s="1">
-        <v>1205.370000</v>
+        <v>1205.3699999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.015000</v>
+        <v>-128.01499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>49203.577808</v>
+        <v>49203.577808000002</v>
       </c>
       <c r="V6" s="1">
-        <v>13.667661</v>
+        <v>13.667661000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.289000</v>
+        <v>-107.289</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>49214.047371</v>
+        <v>49214.047371000001</v>
       </c>
       <c r="AA6" s="1">
         <v>13.670569</v>
       </c>
       <c r="AB6" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.233100</v>
+        <v>-90.233099999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>49225.251492</v>
+        <v>49225.251492000003</v>
       </c>
       <c r="AF6" s="1">
         <v>13.673681</v>
       </c>
       <c r="AG6" s="1">
-        <v>1224.260000</v>
+        <v>1224.26</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.865300</v>
+        <v>-85.865300000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>49235.743364</v>
+        <v>49235.743364000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.676595</v>
+        <v>13.676595000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1231.290000</v>
+        <v>1231.29</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.603200</v>
+        <v>-89.603200000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>49246.743455</v>
+        <v>49246.743455000003</v>
       </c>
       <c r="AP6" s="1">
         <v>13.679651</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1239.270000</v>
+        <v>1239.27</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.790000</v>
+        <v>-101.79</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>49257.725700</v>
+        <v>49257.725700000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>13.682702</v>
+        <v>13.682702000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.415000</v>
+        <v>-121.41500000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>49268.882074</v>
+        <v>49268.882074000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>13.685801</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.117000</v>
+        <v>-139.11699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>49279.872457</v>
+        <v>49279.872456999998</v>
       </c>
       <c r="BE6" s="1">
         <v>13.688853</v>
       </c>
       <c r="BF6" s="1">
-        <v>1298.230000</v>
+        <v>1298.23</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.801000</v>
+        <v>-221.80099999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>49291.008605</v>
+        <v>49291.008605000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.691947</v>
+        <v>13.691947000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.372000</v>
+        <v>-359.37200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>49302.115551</v>
+        <v>49302.115551000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.695032</v>
+        <v>13.695031999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.060000</v>
+        <v>1483.06</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-583.625000</v>
+        <v>-583.625</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>49313.305791</v>
+        <v>49313.305790999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>13.698140</v>
+        <v>13.69814</v>
       </c>
       <c r="BU6" s="1">
-        <v>1615.640000</v>
+        <v>1615.64</v>
       </c>
       <c r="BV6" s="1">
-        <v>-836.609000</v>
+        <v>-836.60900000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>49324.022354</v>
+        <v>49324.022354000001</v>
       </c>
       <c r="BY6" s="1">
         <v>13.701117</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1769.440000</v>
+        <v>1769.44</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1112.770000</v>
+        <v>-1112.77</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>49335.480433</v>
+        <v>49335.480432999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>13.704300</v>
+        <v>13.7043</v>
       </c>
       <c r="CE6" s="1">
-        <v>2190.170000</v>
+        <v>2190.17</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1781.050000</v>
+        <v>-1781.05</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>49162.335990</v>
+        <v>49162.33599</v>
       </c>
       <c r="B7" s="1">
-        <v>13.656204</v>
+        <v>13.656204000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1148.620000</v>
+        <v>1148.6199999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-257.637000</v>
+        <v>-257.637</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>49172.752478</v>
+        <v>49172.752478000002</v>
       </c>
       <c r="G7" s="1">
         <v>13.659098</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.970000</v>
+        <v>1169.97</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.363000</v>
+        <v>-216.363</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>49182.902107</v>
+        <v>49182.902107000002</v>
       </c>
       <c r="L7" s="1">
-        <v>13.661917</v>
+        <v>13.661917000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1197.630000</v>
+        <v>1197.6300000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.066000</v>
+        <v>-150.066</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>49193.387536</v>
+        <v>49193.387536000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>13.664830</v>
+        <v>13.66483</v>
       </c>
       <c r="R7" s="1">
-        <v>1205.300000</v>
+        <v>1205.3</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.986000</v>
+        <v>-127.986</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>49204.233024</v>
+        <v>49204.233024000001</v>
       </c>
       <c r="V7" s="1">
         <v>13.667843</v>
       </c>
       <c r="W7" s="1">
-        <v>1212.620000</v>
+        <v>1212.6199999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.228000</v>
+        <v>-107.22799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>49214.711008</v>
+        <v>49214.711007999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>13.670753</v>
+        <v>13.670752999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1219.750000</v>
+        <v>1219.75</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.246800</v>
+        <v>-90.246799999999993</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>49225.632418</v>
+        <v>49225.632418000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>13.673787</v>
+        <v>13.673787000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.877300</v>
+        <v>-85.877300000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>49236.132228</v>
+        <v>49236.132228000002</v>
       </c>
       <c r="AK7" s="1">
         <v>13.676703</v>
       </c>
       <c r="AL7" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.562000</v>
+        <v>-89.561999999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>49247.134024</v>
+        <v>49247.134023999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.679759</v>
+        <v>13.679759000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1239.280000</v>
+        <v>1239.28</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.816000</v>
+        <v>-101.816</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>49258.092475</v>
+        <v>49258.092474999998</v>
       </c>
       <c r="AU7" s="1">
         <v>13.682803</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.407000</v>
+        <v>-121.407</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>49269.243160</v>
+        <v>49269.243159999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>13.685901</v>
+        <v>13.685900999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.096000</v>
+        <v>-139.096</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>49280.299977</v>
+        <v>49280.299977000002</v>
       </c>
       <c r="BE7" s="1">
         <v>13.688972</v>
       </c>
       <c r="BF7" s="1">
-        <v>1298.280000</v>
+        <v>1298.28</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.825000</v>
+        <v>-221.82499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>49291.347908</v>
+        <v>49291.347908000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>13.692041</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.403000</v>
+        <v>-359.40300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>49302.515292</v>
+        <v>49302.515291999996</v>
       </c>
       <c r="BO7" s="1">
         <v>13.695143</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-583.644000</v>
+        <v>-583.64400000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>49313.723420</v>
+        <v>49313.723420000002</v>
       </c>
       <c r="BT7" s="1">
         <v>13.698257</v>
       </c>
       <c r="BU7" s="1">
-        <v>1615.640000</v>
+        <v>1615.64</v>
       </c>
       <c r="BV7" s="1">
-        <v>-836.515000</v>
+        <v>-836.51499999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>49324.477647</v>
       </c>
       <c r="BY7" s="1">
-        <v>13.701244</v>
+        <v>13.701244000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1769.290000</v>
+        <v>1769.29</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1112.660000</v>
+        <v>-1112.6600000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>49336.023024</v>
+        <v>49336.023024000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.704451</v>
+        <v>13.704451000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2191.960000</v>
+        <v>2191.96</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1782.760000</v>
+        <v>-1782.76</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>49162.679224</v>
       </c>
       <c r="B8" s="1">
-        <v>13.656300</v>
+        <v>13.6563</v>
       </c>
       <c r="C8" s="1">
-        <v>1148.780000</v>
+        <v>1148.78</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.725000</v>
+        <v>-257.72500000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>49173.094216</v>
+        <v>49173.094215999998</v>
       </c>
       <c r="G8" s="1">
         <v>13.659193</v>
       </c>
       <c r="H8" s="1">
-        <v>1170.180000</v>
+        <v>1170.18</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.604000</v>
+        <v>-215.60400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>49183.250763</v>
+        <v>49183.250762999996</v>
       </c>
       <c r="L8" s="1">
-        <v>13.662014</v>
+        <v>13.662013999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1197.610000</v>
+        <v>1197.6099999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.031000</v>
+        <v>-150.03100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>49194.042221</v>
+        <v>49194.042221000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>13.665012</v>
+        <v>13.665012000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.912000</v>
+        <v>-127.91200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>49204.606546</v>
+        <v>49204.606546000003</v>
       </c>
       <c r="V8" s="1">
-        <v>13.667946</v>
+        <v>13.667946000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1212.670000</v>
+        <v>1212.67</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.186000</v>
+        <v>-107.18600000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>49215.094912</v>
       </c>
       <c r="AA8" s="1">
-        <v>13.670860</v>
+        <v>13.670859999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.311700</v>
+        <v>-90.311700000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>49225.977637</v>
+        <v>49225.977637000004</v>
       </c>
       <c r="AF8" s="1">
         <v>13.673883</v>
       </c>
       <c r="AG8" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.062800</v>
+        <v>-86.062799999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>49236.482404</v>
+        <v>49236.482404000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>13.676801</v>
+        <v>13.676800999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1231.320000</v>
+        <v>1231.32</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.571400</v>
+        <v>-89.571399999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>49247.490613</v>
+        <v>49247.490613000002</v>
       </c>
       <c r="AP8" s="1">
         <v>13.679859</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1239.290000</v>
+        <v>1239.29</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.827000</v>
+        <v>-101.827</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>49258.516680</v>
+        <v>49258.516680000001</v>
       </c>
       <c r="AU8" s="1">
         <v>13.682921</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.300000</v>
+        <v>1249.3</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.424000</v>
+        <v>-121.42400000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>49269.671246</v>
+        <v>49269.671245999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>13.686020</v>
+        <v>13.686019999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.800000</v>
+        <v>1257.8</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.123000</v>
+        <v>-139.12299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>49280.593145</v>
+        <v>49280.593144999999</v>
       </c>
       <c r="BE8" s="1">
         <v>13.689054</v>
       </c>
       <c r="BF8" s="1">
-        <v>1298.260000</v>
+        <v>1298.26</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.814000</v>
+        <v>-221.81399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>49291.738252</v>
+        <v>49291.738252000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>13.692150</v>
+        <v>13.69215</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.377000</v>
+        <v>-359.37700000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>49302.944332</v>
+        <v>49302.944331999999</v>
       </c>
       <c r="BO8" s="1">
         <v>13.695262</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-583.591000</v>
+        <v>-583.59100000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>49314.138559</v>
+        <v>49314.138558999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>13.698372</v>
+        <v>13.698372000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1615.720000</v>
+        <v>1615.72</v>
       </c>
       <c r="BV8" s="1">
-        <v>-836.561000</v>
+        <v>-836.56100000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>49324.905231</v>
+        <v>49324.905230999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>13.701363</v>
+        <v>13.701363000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1769.210000</v>
+        <v>1769.21</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1112.600000</v>
+        <v>-1112.5999999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>49336.564690</v>
+        <v>49336.564689999999</v>
       </c>
       <c r="CD8" s="1">
         <v>13.704601</v>
       </c>
       <c r="CE8" s="1">
-        <v>2190.950000</v>
+        <v>2190.9499999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1780.360000</v>
+        <v>-1780.36</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>49163.020438</v>
       </c>
@@ -2280,208 +2696,208 @@
         <v>13.656395</v>
       </c>
       <c r="C9" s="1">
-        <v>1148.500000</v>
+        <v>1148.5</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.642000</v>
+        <v>-257.642</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>49173.748904</v>
       </c>
       <c r="G9" s="1">
-        <v>13.659375</v>
+        <v>13.659375000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.310000</v>
+        <v>1169.31</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.835000</v>
+        <v>-215.83500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>49183.903003</v>
+        <v>49183.903002999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.662195</v>
+        <v>13.662195000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1197.600000</v>
+        <v>1197.5999999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.804000</v>
+        <v>-149.804</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>49194.435051</v>
       </c>
       <c r="Q9" s="1">
-        <v>13.665121</v>
+        <v>13.665120999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.962000</v>
+        <v>-127.962</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>49204.949282</v>
+        <v>49204.949282000001</v>
       </c>
       <c r="V9" s="1">
-        <v>13.668041</v>
+        <v>13.668041000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1212.520000</v>
+        <v>1212.52</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.148000</v>
+        <v>-107.148</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>49215.443599</v>
+        <v>49215.443598999998</v>
       </c>
       <c r="AA9" s="1">
         <v>13.670957</v>
       </c>
       <c r="AB9" s="1">
-        <v>1219.730000</v>
+        <v>1219.73</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.284600</v>
+        <v>-90.284599999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>49226.320369</v>
+        <v>49226.320369000001</v>
       </c>
       <c r="AF9" s="1">
         <v>13.673978</v>
       </c>
       <c r="AG9" s="1">
-        <v>1224.350000</v>
+        <v>1224.3499999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.976700</v>
+        <v>-85.976699999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>49236.843501</v>
+        <v>49236.843501000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.676901</v>
+        <v>13.676901000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.556300</v>
+        <v>-89.556299999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>49247.920646</v>
+        <v>49247.920645999999</v>
       </c>
       <c r="AP9" s="1">
         <v>13.679978</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1239.260000</v>
+        <v>1239.26</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.790000</v>
+        <v>-101.79</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>49258.819239</v>
+        <v>49258.819238999997</v>
       </c>
       <c r="AU9" s="1">
         <v>13.683005</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.447000</v>
+        <v>-121.447</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>49269.960873</v>
+        <v>49269.960873000004</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.686100</v>
+        <v>13.6861</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.830000</v>
+        <v>1257.83</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.118000</v>
+        <v>-139.11799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>49280.954203</v>
+        <v>49280.954203000001</v>
       </c>
       <c r="BE9" s="1">
         <v>13.689154</v>
       </c>
       <c r="BF9" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.834000</v>
+        <v>-221.834</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>49292.114682</v>
+        <v>49292.114681999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>13.692254</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.357000</v>
+        <v>-359.35700000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>49303.335677</v>
+        <v>49303.335677000003</v>
       </c>
       <c r="BO9" s="1">
         <v>13.695371</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.110000</v>
+        <v>1483.11</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-583.642000</v>
+        <v>-583.64200000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>49314.577502</v>
@@ -2490,75 +2906,75 @@
         <v>13.698494</v>
       </c>
       <c r="BU9" s="1">
-        <v>1615.750000</v>
+        <v>1615.75</v>
       </c>
       <c r="BV9" s="1">
-        <v>-836.572000</v>
+        <v>-836.572</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>49325.343694</v>
+        <v>49325.343694000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>13.701484</v>
+        <v>13.701484000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1769.300000</v>
+        <v>1769.3</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1112.810000</v>
+        <v>-1112.81</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>49337.101948</v>
+        <v>49337.101948000003</v>
       </c>
       <c r="CD9" s="1">
         <v>13.704751</v>
       </c>
       <c r="CE9" s="1">
-        <v>2190.640000</v>
+        <v>2190.64</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1782.610000</v>
+        <v>-1782.61</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>49163.670196</v>
+        <v>49163.670195999999</v>
       </c>
       <c r="B10" s="1">
         <v>13.656575</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.750000</v>
+        <v>1148.75</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.411000</v>
+        <v>-257.411</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>49174.127846</v>
+        <v>49174.127846000003</v>
       </c>
       <c r="G10" s="1">
-        <v>13.659480</v>
+        <v>13.65948</v>
       </c>
       <c r="H10" s="1">
-        <v>1169.780000</v>
+        <v>1169.78</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.241000</v>
+        <v>-216.24100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>49184.285914</v>
@@ -2567,118 +2983,118 @@
         <v>13.662302</v>
       </c>
       <c r="M10" s="1">
-        <v>1197.690000</v>
+        <v>1197.69</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.084000</v>
+        <v>-150.084</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>49194.783243</v>
+        <v>49194.783242999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>13.665218</v>
+        <v>13.665217999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.983000</v>
+        <v>-127.983</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>49205.294957</v>
+        <v>49205.294956999998</v>
       </c>
       <c r="V10" s="1">
         <v>13.668137</v>
       </c>
       <c r="W10" s="1">
-        <v>1212.520000</v>
+        <v>1212.52</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.287000</v>
+        <v>-107.28700000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>49215.792287</v>
+        <v>49215.792286999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>13.671053</v>
+        <v>13.671053000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1219.750000</v>
+        <v>1219.75</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.243600</v>
+        <v>-90.243600000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>49226.738015</v>
+        <v>49226.738015000003</v>
       </c>
       <c r="AF10" s="1">
         <v>13.674094</v>
       </c>
       <c r="AG10" s="1">
-        <v>1224.220000</v>
+        <v>1224.22</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.967600</v>
+        <v>-85.967600000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>49237.536898</v>
+        <v>49237.536897999998</v>
       </c>
       <c r="AK10" s="1">
         <v>13.677094</v>
       </c>
       <c r="AL10" s="1">
-        <v>1231.320000</v>
+        <v>1231.32</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.577800</v>
+        <v>-89.577799999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>49248.210805</v>
+        <v>49248.210805000002</v>
       </c>
       <c r="AP10" s="1">
         <v>13.680059</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1239.250000</v>
+        <v>1239.25</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.781000</v>
+        <v>-101.78100000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>49259.184335</v>
+        <v>49259.184334999998</v>
       </c>
       <c r="AU10" s="1">
         <v>13.683107</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.300000</v>
+        <v>1249.3</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.434000</v>
+        <v>-121.434</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>49270.371562</v>
@@ -2687,210 +3103,210 @@
         <v>13.686214</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.117000</v>
+        <v>-139.11699999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>49281.315784</v>
+        <v>49281.315783999999</v>
       </c>
       <c r="BE10" s="1">
         <v>13.689254</v>
       </c>
       <c r="BF10" s="1">
-        <v>1298.260000</v>
+        <v>1298.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.819000</v>
+        <v>-221.81899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>49292.863179</v>
       </c>
       <c r="BJ10" s="1">
-        <v>13.692462</v>
+        <v>13.692462000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.382000</v>
+        <v>-359.38200000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>49304.149116</v>
+        <v>49304.149116000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>13.695597</v>
+        <v>13.695596999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-583.652000</v>
+        <v>-583.65200000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>49315.006075</v>
+        <v>49315.006074999998</v>
       </c>
       <c r="BT10" s="1">
         <v>13.698613</v>
       </c>
       <c r="BU10" s="1">
-        <v>1615.900000</v>
+        <v>1615.9</v>
       </c>
       <c r="BV10" s="1">
-        <v>-836.599000</v>
+        <v>-836.59900000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>49325.764301</v>
+        <v>49325.764301000003</v>
       </c>
       <c r="BY10" s="1">
         <v>13.701601</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1769.360000</v>
+        <v>1769.36</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1112.980000</v>
+        <v>-1112.98</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>49337.950974</v>
+        <v>49337.950973999999</v>
       </c>
       <c r="CD10" s="1">
         <v>13.704986</v>
       </c>
       <c r="CE10" s="1">
-        <v>2190.320000</v>
+        <v>2190.3200000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1780.200000</v>
+        <v>-1780.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>49164.044180</v>
+        <v>49164.044179999997</v>
       </c>
       <c r="B11" s="1">
         <v>13.656679</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.490000</v>
+        <v>1148.49</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.643000</v>
+        <v>-257.64299999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>49174.473558</v>
+        <v>49174.473557999998</v>
       </c>
       <c r="G11" s="1">
-        <v>13.659576</v>
+        <v>13.659575999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.130000</v>
+        <v>1170.1300000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.665000</v>
+        <v>-215.66499999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>49184.632182</v>
+        <v>49184.632182000001</v>
       </c>
       <c r="L11" s="1">
         <v>13.662398</v>
       </c>
       <c r="M11" s="1">
-        <v>1197.600000</v>
+        <v>1197.5999999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.022000</v>
+        <v>-150.02199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>49195.132924</v>
+        <v>49195.132923999998</v>
       </c>
       <c r="Q11" s="1">
         <v>13.665315</v>
       </c>
       <c r="R11" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.008000</v>
+        <v>-128.00800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>49205.717548</v>
+        <v>49205.717548000001</v>
       </c>
       <c r="V11" s="1">
         <v>13.668255</v>
       </c>
       <c r="W11" s="1">
-        <v>1212.580000</v>
+        <v>1212.58</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.022000</v>
+        <v>-107.02200000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>49216.210943</v>
+        <v>49216.210942999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>13.671170</v>
+        <v>13.67117</v>
       </c>
       <c r="AB11" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.264600</v>
+        <v>-90.264600000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>49227.035637</v>
+        <v>49227.035637000001</v>
       </c>
       <c r="AF11" s="1">
         <v>13.674177</v>
       </c>
       <c r="AG11" s="1">
-        <v>1224.280000</v>
+        <v>1224.28</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.880800</v>
+        <v>-85.880799999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>49237.882115</v>
@@ -2899,874 +3315,874 @@
         <v>13.677189</v>
       </c>
       <c r="AL11" s="1">
-        <v>1231.320000</v>
+        <v>1231.32</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.580900</v>
+        <v>-89.5809</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>49248.576676</v>
+        <v>49248.576675999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>13.680160</v>
+        <v>13.680160000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1239.250000</v>
+        <v>1239.25</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.815000</v>
+        <v>-101.815</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>49259.549881</v>
+        <v>49259.549880999999</v>
       </c>
       <c r="AU11" s="1">
         <v>13.683208</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.433000</v>
+        <v>-121.43300000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>49270.997014</v>
       </c>
       <c r="AZ11" s="1">
-        <v>13.686388</v>
+        <v>13.686388000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.850000</v>
+        <v>1257.8499999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.120000</v>
+        <v>-139.12</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>49282.037496</v>
+        <v>49282.037495999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>13.689455</v>
+        <v>13.689455000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1298.260000</v>
+        <v>1298.26</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.805000</v>
+        <v>-221.80500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>49293.238618</v>
+        <v>49293.238618000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>13.692566</v>
+        <v>13.692565999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.378000</v>
+        <v>-359.37799999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>49304.548889</v>
+        <v>49304.548888999998</v>
       </c>
       <c r="BO11" s="1">
         <v>13.695708</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.110000</v>
+        <v>1483.11</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-583.636000</v>
+        <v>-583.63599999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>49315.414252</v>
+        <v>49315.414252000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>13.698726</v>
+        <v>13.698726000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1615.990000</v>
+        <v>1615.99</v>
       </c>
       <c r="BV11" s="1">
-        <v>-836.594000</v>
+        <v>-836.59400000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>49326.485453</v>
+        <v>49326.485453000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.701802</v>
+        <v>13.701802000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1769.280000</v>
+        <v>1769.28</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1112.830000</v>
+        <v>-1112.83</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>49338.178670</v>
+        <v>49338.178670000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>13.705050</v>
+        <v>13.70505</v>
       </c>
       <c r="CE11" s="1">
-        <v>2190.370000</v>
+        <v>2190.37</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1780.070000</v>
+        <v>-1780.07</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>49164.388403</v>
+        <v>49164.388402999997</v>
       </c>
       <c r="B12" s="1">
         <v>13.656775</v>
       </c>
       <c r="C12" s="1">
-        <v>1148.940000</v>
+        <v>1148.94</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.474000</v>
+        <v>-257.47399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>49174.817821</v>
+        <v>49174.817820999997</v>
       </c>
       <c r="G12" s="1">
         <v>13.659672</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.190000</v>
+        <v>1170.19</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.795000</v>
+        <v>-215.79499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>49184.980842</v>
+        <v>49184.980841999997</v>
       </c>
       <c r="L12" s="1">
         <v>13.662495</v>
       </c>
       <c r="M12" s="1">
-        <v>1197.630000</v>
+        <v>1197.6300000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.091000</v>
+        <v>-150.09100000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>49195.553529</v>
+        <v>49195.553528999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>13.665432</v>
+        <v>13.665431999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1205.340000</v>
+        <v>1205.3399999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.974000</v>
+        <v>-127.974</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>49205.991340</v>
+        <v>49205.99134</v>
       </c>
       <c r="V12" s="1">
         <v>13.668331</v>
       </c>
       <c r="W12" s="1">
-        <v>1212.380000</v>
+        <v>1212.3800000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.089000</v>
+        <v>-107.089</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>49216.502597</v>
+        <v>49216.502596999999</v>
       </c>
       <c r="AA12" s="1">
         <v>13.671251</v>
       </c>
       <c r="AB12" s="1">
-        <v>1219.570000</v>
+        <v>1219.57</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.314300</v>
+        <v>-90.314300000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>49227.381347</v>
+        <v>49227.381347000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.674273</v>
+        <v>13.674272999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1224.360000</v>
+        <v>1224.3599999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.938000</v>
+        <v>-85.938000000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>49238.237249</v>
+        <v>49238.237248999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.677288</v>
+        <v>13.677288000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1231.290000</v>
+        <v>1231.29</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.600500</v>
+        <v>-89.600499999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>49248.936452</v>
+        <v>49248.936452000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>13.680260</v>
+        <v>13.680260000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1239.280000</v>
+        <v>1239.28</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.808000</v>
+        <v>-101.80800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>49260.279956</v>
+        <v>49260.279955999998</v>
       </c>
       <c r="AU12" s="1">
         <v>13.683411</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.426000</v>
+        <v>-121.426</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>49271.397796</v>
+        <v>49271.397795999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.686499</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.124000</v>
+        <v>-139.124</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>49282.399048</v>
+        <v>49282.399047999999</v>
       </c>
       <c r="BE12" s="1">
         <v>13.689555</v>
       </c>
       <c r="BF12" s="1">
-        <v>1298.250000</v>
+        <v>1298.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.849000</v>
+        <v>-221.84899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>49293.613592</v>
+        <v>49293.613592000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>13.692670</v>
+        <v>13.69267</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.417000</v>
+        <v>-359.41699999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>49305.277017</v>
       </c>
       <c r="BO12" s="1">
-        <v>13.695910</v>
+        <v>13.69591</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-583.630000</v>
+        <v>-583.63</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>49316.158780</v>
+        <v>49316.158779999998</v>
       </c>
       <c r="BT12" s="1">
         <v>13.698933</v>
       </c>
       <c r="BU12" s="1">
-        <v>1616.100000</v>
+        <v>1616.1</v>
       </c>
       <c r="BV12" s="1">
-        <v>-836.625000</v>
+        <v>-836.625</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>49326.667982</v>
+        <v>49326.667981999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.701852</v>
+        <v>13.701852000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1769.190000</v>
+        <v>1769.19</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1112.880000</v>
+        <v>-1112.8800000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>49338.701508</v>
+        <v>49338.701507999998</v>
       </c>
       <c r="CD12" s="1">
         <v>13.705195</v>
       </c>
       <c r="CE12" s="1">
-        <v>2190.050000</v>
+        <v>2190.0500000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1782.230000</v>
+        <v>-1782.23</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>49164.730654</v>
+        <v>49164.730653999999</v>
       </c>
       <c r="B13" s="1">
-        <v>13.656870</v>
+        <v>13.65687</v>
       </c>
       <c r="C13" s="1">
-        <v>1148.660000</v>
+        <v>1148.6600000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.451000</v>
+        <v>-257.45100000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>49175.241396</v>
+        <v>49175.241395999998</v>
       </c>
       <c r="G13" s="1">
         <v>13.659789</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.360000</v>
+        <v>1170.3599999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.858000</v>
+        <v>-215.858</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>49185.383063</v>
+        <v>49185.383063000001</v>
       </c>
       <c r="L13" s="1">
         <v>13.662606</v>
       </c>
       <c r="M13" s="1">
-        <v>1197.850000</v>
+        <v>1197.8499999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.984000</v>
+        <v>-149.98400000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>49195.827322</v>
+        <v>49195.827321999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.665508</v>
+        <v>13.665508000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1205.290000</v>
+        <v>1205.29</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.955000</v>
+        <v>-127.955</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>49206.331100</v>
+        <v>49206.331100000003</v>
       </c>
       <c r="V13" s="1">
-        <v>13.668425</v>
+        <v>13.668424999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.171000</v>
+        <v>-107.17100000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>49216.849789</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.671347</v>
+        <v>13.671347000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1219.800000</v>
+        <v>1219.8</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.348100</v>
+        <v>-90.348100000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>49227.725535</v>
+        <v>49227.725534999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.674368</v>
+        <v>13.674367999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1224.270000</v>
+        <v>1224.27</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.989500</v>
+        <v>-85.989500000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>49238.929699</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.677480</v>
+        <v>13.677479999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1231.320000</v>
+        <v>1231.32</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.593500</v>
+        <v>-89.593500000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>49249.654199</v>
+        <v>49249.654198999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>13.680459</v>
+        <v>13.680459000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1239.280000</v>
+        <v>1239.28</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.803000</v>
+        <v>-101.803</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>49260.663399</v>
+        <v>49260.663398999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>13.683518</v>
+        <v>13.683517999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.300000</v>
+        <v>1249.3</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.444000</v>
+        <v>-121.444</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>49271.778214</v>
+        <v>49271.778213999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>13.686605</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.133000</v>
+        <v>-139.13300000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>49282.762614</v>
+        <v>49282.762613999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>13.689656</v>
+        <v>13.689655999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1298.270000</v>
+        <v>1298.27</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.863000</v>
+        <v>-221.863</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>49294.305048</v>
+        <v>49294.305048000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>13.692863</v>
+        <v>13.692862999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.389000</v>
+        <v>-359.38900000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>49305.779006</v>
+        <v>49305.779005999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.696050</v>
+        <v>13.69605</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.100000</v>
+        <v>1483.1</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-583.678000</v>
+        <v>-583.678</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>49316.274314</v>
+        <v>49316.274314000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>13.698965</v>
+        <v>13.698964999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1616.190000</v>
+        <v>1616.19</v>
       </c>
       <c r="BV13" s="1">
-        <v>-836.570000</v>
+        <v>-836.57</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>49327.093052</v>
+        <v>49327.093051999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>13.701970</v>
+        <v>13.701969999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1769.240000</v>
+        <v>1769.24</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1113.020000</v>
+        <v>-1113.02</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>49339.218567</v>
+        <v>49339.218567000004</v>
       </c>
       <c r="CD13" s="1">
-        <v>13.705338</v>
+        <v>13.705337999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2189.970000</v>
+        <v>2189.9699999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1781.630000</v>
+        <v>-1781.63</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>49165.143809</v>
+        <v>49165.143809000001</v>
       </c>
       <c r="B14" s="1">
         <v>13.656984</v>
       </c>
       <c r="C14" s="1">
-        <v>1148.850000</v>
+        <v>1148.8499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-257.367000</v>
+        <v>-257.36700000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>49175.521636</v>
+        <v>49175.521635999998</v>
       </c>
       <c r="G14" s="1">
         <v>13.659867</v>
       </c>
       <c r="H14" s="1">
-        <v>1170.400000</v>
+        <v>1170.4000000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.929000</v>
+        <v>-215.929</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>49185.680167</v>
+        <v>49185.680166999999</v>
       </c>
       <c r="L14" s="1">
         <v>13.662689</v>
       </c>
       <c r="M14" s="1">
-        <v>1197.810000</v>
+        <v>1197.81</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.079000</v>
+        <v>-150.07900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>49196.180474</v>
+        <v>49196.180474000001</v>
       </c>
       <c r="Q14" s="1">
         <v>13.665606</v>
       </c>
       <c r="R14" s="1">
-        <v>1205.300000</v>
+        <v>1205.3</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.946000</v>
+        <v>-127.946</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>49206.676814</v>
+        <v>49206.676813999999</v>
       </c>
       <c r="V14" s="1">
         <v>13.668521</v>
       </c>
       <c r="W14" s="1">
-        <v>1212.300000</v>
+        <v>1212.3</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.153000</v>
+        <v>-107.15300000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>49217.199965</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.671444</v>
+        <v>13.671443999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1219.860000</v>
+        <v>1219.8599999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.198400</v>
+        <v>-90.198400000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>49228.410016</v>
+        <v>49228.410016000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.674558</v>
+        <v>13.674557999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1224.270000</v>
+        <v>1224.27</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.965000</v>
+        <v>-85.965000000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>49239.278880</v>
+        <v>49239.278879999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>13.677577</v>
+        <v>13.677576999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1231.310000</v>
+        <v>1231.31</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.589300</v>
+        <v>-89.589299999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>49250.016770</v>
+        <v>49250.016770000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>13.680560</v>
+        <v>13.68056</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1239.280000</v>
+        <v>1239.28</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.810000</v>
+        <v>-101.81</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>49261.031397</v>
+        <v>49261.031396999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.683620</v>
+        <v>13.683619999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.422000</v>
+        <v>-121.422</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>49272.442853</v>
       </c>
       <c r="AZ14" s="1">
-        <v>13.686790</v>
+        <v>13.68679</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.820000</v>
+        <v>1257.82</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.117000</v>
+        <v>-139.11699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>49283.427253</v>
+        <v>49283.427253000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>13.689841</v>
+        <v>13.689840999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1298.230000</v>
+        <v>1298.23</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.838000</v>
+        <v>-221.83799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>49294.740999</v>
+        <v>49294.740999000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.692984</v>
+        <v>13.692983999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.408000</v>
+        <v>-359.40800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>49306.195113</v>
+        <v>49306.195113000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>13.696165</v>
+        <v>13.696165000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-583.709000</v>
+        <v>-583.70899999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>49316.711785</v>
@@ -3775,60 +4191,60 @@
         <v>13.699087</v>
       </c>
       <c r="BU14" s="1">
-        <v>1616.180000</v>
+        <v>1616.18</v>
       </c>
       <c r="BV14" s="1">
-        <v>-836.652000</v>
+        <v>-836.65200000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>49327.538956</v>
+        <v>49327.538955999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>13.702094</v>
+        <v>13.702094000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1769.150000</v>
+        <v>1769.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1113.240000</v>
+        <v>-1113.24</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>49339.768596</v>
+        <v>49339.768596000002</v>
       </c>
       <c r="CD14" s="1">
         <v>13.705491</v>
       </c>
       <c r="CE14" s="1">
-        <v>2190.610000</v>
+        <v>2190.61</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1780.160000</v>
+        <v>-1780.16</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>49165.430995</v>
+        <v>49165.430995000002</v>
       </c>
       <c r="B15" s="1">
         <v>13.657064</v>
       </c>
       <c r="C15" s="1">
-        <v>1148.700000</v>
+        <v>1148.7</v>
       </c>
       <c r="D15" s="1">
-        <v>-257.412000</v>
+        <v>-257.41199999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>49175.864341</v>
@@ -3837,88 +4253,88 @@
         <v>13.659962</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.540000</v>
+        <v>1170.54</v>
       </c>
       <c r="I15" s="1">
-        <v>-216.012000</v>
+        <v>-216.012</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>49186.031334</v>
+        <v>49186.031333999999</v>
       </c>
       <c r="L15" s="1">
-        <v>13.662786</v>
+        <v>13.662786000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1197.770000</v>
+        <v>1197.77</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.891000</v>
+        <v>-149.89099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>49196.527674</v>
+        <v>49196.527673999997</v>
       </c>
       <c r="Q15" s="1">
         <v>13.665702</v>
       </c>
       <c r="R15" s="1">
-        <v>1205.440000</v>
+        <v>1205.44</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.949000</v>
+        <v>-127.949</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>49207.361326</v>
+        <v>49207.361325999998</v>
       </c>
       <c r="V15" s="1">
         <v>13.668711</v>
       </c>
       <c r="W15" s="1">
-        <v>1212.420000</v>
+        <v>1212.42</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.186000</v>
+        <v>-107.18600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>49217.895360</v>
+        <v>49217.895360000002</v>
       </c>
       <c r="AA15" s="1">
         <v>13.671638</v>
       </c>
       <c r="AB15" s="1">
-        <v>1219.760000</v>
+        <v>1219.76</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.271100</v>
+        <v>-90.271100000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>49228.754274</v>
+        <v>49228.754273999999</v>
       </c>
       <c r="AF15" s="1">
         <v>13.674654</v>
       </c>
       <c r="AG15" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.937700</v>
+        <v>-85.937700000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>49239.627343</v>
@@ -3927,103 +4343,103 @@
         <v>13.677674</v>
       </c>
       <c r="AL15" s="1">
-        <v>1231.300000</v>
+        <v>1231.3</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.602100</v>
+        <v>-89.602099999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>49250.376865</v>
+        <v>49250.376864999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.680660</v>
+        <v>13.68066</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1239.280000</v>
+        <v>1239.28</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.806000</v>
+        <v>-101.806</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>49261.700035</v>
+        <v>49261.700035000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.683806</v>
+        <v>13.683806000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.405000</v>
+        <v>-121.405</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>49272.862467</v>
+        <v>49272.862466999999</v>
       </c>
       <c r="AZ15" s="1">
         <v>13.686906</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.820000</v>
+        <v>1257.82</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.114000</v>
+        <v>-139.114</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>49283.877652</v>
+        <v>49283.877652000003</v>
       </c>
       <c r="BE15" s="1">
         <v>13.689966</v>
       </c>
       <c r="BF15" s="1">
-        <v>1298.270000</v>
+        <v>1298.27</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.802000</v>
+        <v>-221.80199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>49295.105558</v>
+        <v>49295.105558000003</v>
       </c>
       <c r="BJ15" s="1">
         <v>13.693085</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.384000</v>
+        <v>-359.38400000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>49306.595421</v>
+        <v>49306.595420999998</v>
       </c>
       <c r="BO15" s="1">
         <v>13.696277</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.170000</v>
+        <v>1483.17</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-583.639000</v>
+        <v>-583.63900000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>49317.126441</v>
@@ -4032,75 +4448,75 @@
         <v>13.699202</v>
       </c>
       <c r="BU15" s="1">
-        <v>1616.240000</v>
+        <v>1616.24</v>
       </c>
       <c r="BV15" s="1">
-        <v>-836.741000</v>
+        <v>-836.74099999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>49327.972458</v>
+        <v>49327.972457999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.702215</v>
+        <v>13.702215000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1769.250000</v>
+        <v>1769.25</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1113.110000</v>
+        <v>-1113.1099999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>49340.299034</v>
+        <v>49340.299034000003</v>
       </c>
       <c r="CD15" s="1">
         <v>13.705639</v>
       </c>
       <c r="CE15" s="1">
-        <v>2189.720000</v>
+        <v>2189.7199999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1782.320000</v>
+        <v>-1782.32</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>49165.774260</v>
+        <v>49165.774259999998</v>
       </c>
       <c r="B16" s="1">
-        <v>13.657160</v>
+        <v>13.657159999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1148.790000</v>
+        <v>1148.79</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.533000</v>
+        <v>-257.53300000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>49176.208100</v>
+        <v>49176.208100000003</v>
       </c>
       <c r="G16" s="1">
-        <v>13.660058</v>
+        <v>13.660057999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1169.840000</v>
+        <v>1169.8399999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.830000</v>
+        <v>-215.83</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>49186.376053</v>
@@ -4109,133 +4525,133 @@
         <v>13.662882</v>
       </c>
       <c r="M16" s="1">
-        <v>1197.600000</v>
+        <v>1197.5999999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.065000</v>
+        <v>-150.065</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>49197.224057</v>
+        <v>49197.224056999999</v>
       </c>
       <c r="Q16" s="1">
         <v>13.665896</v>
       </c>
       <c r="R16" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.989000</v>
+        <v>-127.989</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>49207.707498</v>
+        <v>49207.707498000003</v>
       </c>
       <c r="V16" s="1">
         <v>13.668808</v>
       </c>
       <c r="W16" s="1">
-        <v>1212.440000</v>
+        <v>1212.44</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.063000</v>
+        <v>-107.063</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>49218.244013</v>
+        <v>49218.244013000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>13.671734</v>
+        <v>13.671734000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.270300</v>
+        <v>-90.270300000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>49229.099453</v>
+        <v>49229.099453000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>13.674750</v>
+        <v>13.67475</v>
       </c>
       <c r="AG16" s="1">
-        <v>1224.250000</v>
+        <v>1224.25</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.946400</v>
+        <v>-85.946399999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>49240.290191</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.677858</v>
+        <v>13.677858000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1231.350000</v>
+        <v>1231.3499999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.596300</v>
+        <v>-89.596299999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>49251.038032</v>
+        <v>49251.038031999997</v>
       </c>
       <c r="AP16" s="1">
         <v>13.680844</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1239.250000</v>
+        <v>1239.25</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.801000</v>
+        <v>-101.801</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>49262.158631</v>
+        <v>49262.158630999998</v>
       </c>
       <c r="AU16" s="1">
         <v>13.683933</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.434000</v>
+        <v>-121.434</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>49273.236980</v>
+        <v>49273.236980000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.687010</v>
+        <v>13.687010000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.132000</v>
+        <v>-139.13200000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>49284.238739</v>
@@ -4244,315 +4660,315 @@
         <v>13.690066</v>
       </c>
       <c r="BF16" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.834000</v>
+        <v>-221.834</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>49295.490490</v>
+        <v>49295.490489999996</v>
       </c>
       <c r="BJ16" s="1">
         <v>13.693192</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.399000</v>
+        <v>-359.399</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>49307.015035</v>
+        <v>49307.015034999997</v>
       </c>
       <c r="BO16" s="1">
         <v>13.696393</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-583.631000</v>
+        <v>-583.63099999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>49317.553723</v>
+        <v>49317.553722999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>13.699320</v>
+        <v>13.69932</v>
       </c>
       <c r="BU16" s="1">
-        <v>1616.290000</v>
+        <v>1616.29</v>
       </c>
       <c r="BV16" s="1">
-        <v>-836.717000</v>
+        <v>-836.71699999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>49328.393066</v>
+        <v>49328.393065999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.702331</v>
+        <v>13.702330999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1769.150000</v>
+        <v>1769.15</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1112.980000</v>
+        <v>-1112.98</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>49340.816361</v>
+        <v>49340.816360999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>13.705782</v>
+        <v>13.705781999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.100000</v>
+        <v>2192.1</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1782.410000</v>
+        <v>-1782.41</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>49166.113986</v>
+        <v>49166.113985999997</v>
       </c>
       <c r="B17" s="1">
         <v>13.657254</v>
       </c>
       <c r="C17" s="1">
-        <v>1148.460000</v>
+        <v>1148.46</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.351000</v>
+        <v>-257.351</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>49176.897540</v>
+        <v>49176.897539999998</v>
       </c>
       <c r="G17" s="1">
         <v>13.660249</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.190000</v>
+        <v>1170.19</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.657000</v>
+        <v>-215.65700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>49187.068965</v>
+        <v>49187.068964999999</v>
       </c>
       <c r="L17" s="1">
-        <v>13.663075</v>
+        <v>13.663074999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1197.600000</v>
+        <v>1197.5999999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.126000</v>
+        <v>-150.126</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>49197.570295</v>
+        <v>49197.570294999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.665992</v>
+        <v>13.665991999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.987000</v>
+        <v>-127.98699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>49208.051257</v>
+        <v>49208.051256999999</v>
       </c>
       <c r="V17" s="1">
         <v>13.668903</v>
       </c>
       <c r="W17" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.180000</v>
+        <v>-107.18</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>49218.594188</v>
+        <v>49218.594188000003</v>
       </c>
       <c r="AA17" s="1">
         <v>13.671832</v>
       </c>
       <c r="AB17" s="1">
-        <v>1219.800000</v>
+        <v>1219.8</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.405100</v>
+        <v>-90.405100000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>49229.749741</v>
       </c>
       <c r="AF17" s="1">
-        <v>13.674930</v>
+        <v>13.67493</v>
       </c>
       <c r="AG17" s="1">
-        <v>1224.270000</v>
+        <v>1224.27</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.982400</v>
+        <v>-85.982399999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>49240.675086</v>
+        <v>49240.675086000003</v>
       </c>
       <c r="AK17" s="1">
         <v>13.677965</v>
       </c>
       <c r="AL17" s="1">
-        <v>1231.300000</v>
+        <v>1231.3</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.605200</v>
+        <v>-89.605199999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>49251.487412</v>
+        <v>49251.487412000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.680969</v>
+        <v>13.680968999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1239.260000</v>
+        <v>1239.26</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.816000</v>
+        <v>-101.816</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>49262.521378</v>
+        <v>49262.521377999998</v>
       </c>
       <c r="AU17" s="1">
         <v>13.684034</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.340000</v>
+        <v>1249.3399999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.445000</v>
+        <v>-121.44499999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>49273.617378</v>
+        <v>49273.617378000003</v>
       </c>
       <c r="AZ17" s="1">
         <v>13.687116</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.820000</v>
+        <v>1257.82</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.122000</v>
+        <v>-139.12200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>49284.599333</v>
+        <v>49284.599332999998</v>
       </c>
       <c r="BE17" s="1">
         <v>13.690166</v>
       </c>
       <c r="BF17" s="1">
-        <v>1298.260000</v>
+        <v>1298.26</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.826000</v>
+        <v>-221.82599999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>49295.915525</v>
+        <v>49295.915524999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.693310</v>
+        <v>13.69331</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.310000</v>
+        <v>1368.31</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.423000</v>
+        <v>-359.423</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>49307.412791</v>
+        <v>49307.412791000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>13.696504</v>
+        <v>13.696503999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-583.678000</v>
+        <v>-583.678</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>49317.985017</v>
+        <v>49317.985016999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>13.699440</v>
+        <v>13.699439999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1616.430000</v>
+        <v>1616.43</v>
       </c>
       <c r="BV17" s="1">
-        <v>-836.726000</v>
+        <v>-836.726</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>49328.822107</v>
@@ -4561,105 +4977,105 @@
         <v>13.702451</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1769.240000</v>
+        <v>1769.24</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1113.100000</v>
+        <v>-1113.0999999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>49341.335673</v>
+        <v>49341.335673000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>13.705927</v>
+        <v>13.705927000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2192.480000</v>
+        <v>2192.48</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1780.420000</v>
+        <v>-1780.42</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>49166.799456</v>
+        <v>49166.799456000001</v>
       </c>
       <c r="B18" s="1">
         <v>13.657444</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.500000</v>
+        <v>1148.5</v>
       </c>
       <c r="D18" s="1">
-        <v>-257.622000</v>
+        <v>-257.62200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>49177.240743</v>
+        <v>49177.240743000002</v>
       </c>
       <c r="G18" s="1">
         <v>13.660345</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.380000</v>
+        <v>1170.3800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.082000</v>
+        <v>-216.08199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>49187.413229</v>
+        <v>49187.413228999998</v>
       </c>
       <c r="L18" s="1">
-        <v>13.663170</v>
+        <v>13.663169999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1197.950000</v>
+        <v>1197.95</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.035000</v>
+        <v>-150.035</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>49197.919446</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.666089</v>
+        <v>13.666088999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1205.300000</v>
+        <v>1205.3</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.970000</v>
+        <v>-127.97</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>49208.710444</v>
+        <v>49208.710443999997</v>
       </c>
       <c r="V18" s="1">
         <v>13.669086</v>
       </c>
       <c r="W18" s="1">
-        <v>1212.450000</v>
+        <v>1212.45</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.022000</v>
+        <v>-107.02200000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>49219.254363</v>
@@ -4668,270 +5084,270 @@
         <v>13.672015</v>
       </c>
       <c r="AB18" s="1">
-        <v>1219.650000</v>
+        <v>1219.6500000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.251200</v>
+        <v>-90.251199999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>49230.129186</v>
+        <v>49230.129185999998</v>
       </c>
       <c r="AF18" s="1">
         <v>13.675036</v>
       </c>
       <c r="AG18" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.973100</v>
+        <v>-85.973100000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>49241.021293</v>
+        <v>49241.021292999998</v>
       </c>
       <c r="AK18" s="1">
         <v>13.678061</v>
       </c>
       <c r="AL18" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.597900</v>
+        <v>-89.597899999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>49251.846016</v>
+        <v>49251.846016000003</v>
       </c>
       <c r="AP18" s="1">
         <v>13.681068</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1239.260000</v>
+        <v>1239.26</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.792000</v>
+        <v>-101.792</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>49262.887456</v>
+        <v>49262.887455999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>13.684135</v>
+        <v>13.684134999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.290000</v>
+        <v>1249.29</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.418000</v>
+        <v>-121.41800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>49274.034546</v>
+        <v>49274.034546000003</v>
       </c>
       <c r="AZ18" s="1">
         <v>13.687232</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.110000</v>
+        <v>-139.11000000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>49285.017464</v>
+        <v>49285.017463999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>13.690283</v>
+        <v>13.690283000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1298.270000</v>
+        <v>1298.27</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.816000</v>
+        <v>-221.816</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>49296.249830</v>
+        <v>49296.249830000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>13.693403</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.406000</v>
+        <v>-359.40600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>49307.835909</v>
+        <v>49307.835909000001</v>
       </c>
       <c r="BO18" s="1">
         <v>13.696621</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-583.660000</v>
+        <v>-583.66</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>49318.396697</v>
+        <v>49318.396696999996</v>
       </c>
       <c r="BT18" s="1">
         <v>13.699555</v>
       </c>
       <c r="BU18" s="1">
-        <v>1616.400000</v>
+        <v>1616.4</v>
       </c>
       <c r="BV18" s="1">
-        <v>-836.868000</v>
+        <v>-836.86800000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>49329.241257</v>
+        <v>49329.241257000001</v>
       </c>
       <c r="BY18" s="1">
         <v>13.702567</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1769.250000</v>
+        <v>1769.25</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1113.220000</v>
+        <v>-1113.22</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>49341.851567</v>
+        <v>49341.851566999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.706070</v>
+        <v>13.70607</v>
       </c>
       <c r="CE18" s="1">
-        <v>2192.370000</v>
+        <v>2192.37</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1780.930000</v>
+        <v>-1780.93</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>49167.139215</v>
+        <v>49167.139215000003</v>
       </c>
       <c r="B19" s="1">
         <v>13.657539</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.930000</v>
+        <v>1148.93</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.463000</v>
+        <v>-257.46300000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>49177.586977</v>
+        <v>49177.586976999999</v>
       </c>
       <c r="G19" s="1">
         <v>13.660441</v>
       </c>
       <c r="H19" s="1">
-        <v>1170.020000</v>
+        <v>1170.02</v>
       </c>
       <c r="I19" s="1">
-        <v>-216.532000</v>
+        <v>-216.53200000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>49188.066917</v>
+        <v>49188.066916999996</v>
       </c>
       <c r="L19" s="1">
         <v>13.663352</v>
       </c>
       <c r="M19" s="1">
-        <v>1197.910000</v>
+        <v>1197.9100000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.086000</v>
+        <v>-150.08600000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>49198.577168</v>
+        <v>49198.577168000003</v>
       </c>
       <c r="Q19" s="1">
         <v>13.666271</v>
       </c>
       <c r="R19" s="1">
-        <v>1205.340000</v>
+        <v>1205.3399999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.875000</v>
+        <v>-127.875</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>49209.079432</v>
+        <v>49209.079431999999</v>
       </c>
       <c r="V19" s="1">
-        <v>13.669189</v>
+        <v>13.669188999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.203000</v>
+        <v>-107.203</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>49219.639295</v>
+        <v>49219.639295000001</v>
       </c>
       <c r="AA19" s="1">
         <v>13.672122</v>
       </c>
       <c r="AB19" s="1">
-        <v>1219.740000</v>
+        <v>1219.74</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.329700</v>
+        <v>-90.329700000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>49230.472381</v>
@@ -4940,285 +5356,285 @@
         <v>13.675131</v>
       </c>
       <c r="AG19" s="1">
-        <v>1224.200000</v>
+        <v>1224.2</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.976400</v>
+        <v>-85.976399999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>49241.371966</v>
+        <v>49241.371965999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>13.678159</v>
+        <v>13.678159000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1231.290000</v>
+        <v>1231.29</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.592400</v>
+        <v>-89.592399999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>49252.210543</v>
+        <v>49252.210543000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>13.681170</v>
+        <v>13.68117</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1239.280000</v>
+        <v>1239.28</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.792000</v>
+        <v>-101.792</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>49263.323936</v>
+        <v>49263.323936000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>13.684257</v>
+        <v>13.684257000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.434000</v>
+        <v>-121.434</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>49274.332611</v>
+        <v>49274.332610999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>13.687315</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.830000</v>
+        <v>1257.83</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.154000</v>
+        <v>-139.154</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>49285.319492</v>
+        <v>49285.319492000002</v>
       </c>
       <c r="BE19" s="1">
         <v>13.690367</v>
       </c>
       <c r="BF19" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.837000</v>
+        <v>-221.83699999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>49296.637701</v>
       </c>
       <c r="BJ19" s="1">
-        <v>13.693510</v>
+        <v>13.69351</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.391000</v>
+        <v>-359.39100000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>49308.233700</v>
+        <v>49308.233699999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>13.696732</v>
+        <v>13.696732000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.150000</v>
+        <v>1483.15</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-583.595000</v>
+        <v>-583.59500000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>49318.825767</v>
+        <v>49318.825767000002</v>
       </c>
       <c r="BT19" s="1">
         <v>13.699674</v>
       </c>
       <c r="BU19" s="1">
-        <v>1616.420000</v>
+        <v>1616.42</v>
       </c>
       <c r="BV19" s="1">
-        <v>-836.966000</v>
+        <v>-836.96600000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>49329.661870</v>
+        <v>49329.661870000004</v>
       </c>
       <c r="BY19" s="1">
         <v>13.702684</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1769.170000</v>
+        <v>1769.17</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1113.000000</v>
+        <v>-1113</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>49342.405049</v>
+        <v>49342.405049000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.706224</v>
+        <v>13.706224000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2192.300000</v>
+        <v>2192.3000000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1782.580000</v>
+        <v>-1782.58</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>49167.479999</v>
+        <v>49167.479999000003</v>
       </c>
       <c r="B20" s="1">
-        <v>13.657633</v>
+        <v>13.657633000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1148.750000</v>
+        <v>1148.75</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.456000</v>
+        <v>-257.45600000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>49178.252081</v>
+        <v>49178.252080999999</v>
       </c>
       <c r="G20" s="1">
-        <v>13.660626</v>
+        <v>13.660626000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.740000</v>
+        <v>1170.74</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.112000</v>
+        <v>-216.11199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>49188.451349</v>
+        <v>49188.451349000003</v>
       </c>
       <c r="L20" s="1">
         <v>13.663459</v>
       </c>
       <c r="M20" s="1">
-        <v>1197.670000</v>
+        <v>1197.67</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.072000</v>
+        <v>-150.072</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>49198.967036</v>
+        <v>49198.967036000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>13.666380</v>
+        <v>13.66638</v>
       </c>
       <c r="R20" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.952000</v>
+        <v>-127.952</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>49209.425145</v>
+        <v>49209.425145000001</v>
       </c>
       <c r="V20" s="1">
         <v>13.669285</v>
       </c>
       <c r="W20" s="1">
-        <v>1212.400000</v>
+        <v>1212.4000000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.318000</v>
+        <v>-107.318</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>49219.986495</v>
+        <v>49219.986494999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>13.672218</v>
+        <v>13.672218000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1219.760000</v>
+        <v>1219.76</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.251100</v>
+        <v>-90.251099999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>49230.816139</v>
+        <v>49230.816139000002</v>
       </c>
       <c r="AF20" s="1">
         <v>13.675227</v>
       </c>
       <c r="AG20" s="1">
-        <v>1224.190000</v>
+        <v>1224.19</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.943600</v>
+        <v>-85.943600000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>49241.791085</v>
+        <v>49241.791084999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.678275</v>
+        <v>13.678274999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1231.310000</v>
+        <v>1231.31</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.594700</v>
+        <v>-89.594700000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>49252.649006</v>
@@ -5227,150 +5643,150 @@
         <v>13.681291</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1239.230000</v>
+        <v>1239.23</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.805000</v>
+        <v>-101.80500000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>49263.615088</v>
+        <v>49263.615087999999</v>
       </c>
       <c r="AU20" s="1">
         <v>13.684338</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.430000</v>
+        <v>-121.43</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>49274.693697</v>
+        <v>49274.693697000002</v>
       </c>
       <c r="AZ20" s="1">
         <v>13.687415</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.820000</v>
+        <v>1257.82</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.113000</v>
+        <v>-139.113</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>49285.683060</v>
+        <v>49285.683060000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>13.690468</v>
+        <v>13.690467999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.843000</v>
+        <v>-221.84299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>49297.014660</v>
+        <v>49297.014660000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.693615</v>
+        <v>13.693614999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.300000</v>
+        <v>1368.3</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.340000</v>
+        <v>-359.34</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>49308.652292</v>
+        <v>49308.652291999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.696848</v>
+        <v>13.696847999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.190000</v>
+        <v>1483.19</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-583.665000</v>
+        <v>-583.66499999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>49319.258247</v>
+        <v>49319.258246999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>13.699794</v>
+        <v>13.699794000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1616.380000</v>
+        <v>1616.38</v>
       </c>
       <c r="BV20" s="1">
-        <v>-837.132000</v>
+        <v>-837.13199999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>49330.108233</v>
+        <v>49330.108232999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>13.702808</v>
+        <v>13.702807999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1769.220000</v>
+        <v>1769.22</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1113.090000</v>
+        <v>-1113.0899999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>49342.934963</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.706371</v>
+        <v>13.706371000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2192.160000</v>
+        <v>2192.16</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1780.500000</v>
+        <v>-1780.5</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>49168.125295</v>
+        <v>49168.125294999998</v>
       </c>
       <c r="B21" s="1">
-        <v>13.657813</v>
+        <v>13.657813000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1148.600000</v>
+        <v>1148.5999999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.446000</v>
+        <v>-257.44600000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>49178.623088</v>
@@ -5379,103 +5795,103 @@
         <v>13.660729</v>
       </c>
       <c r="H21" s="1">
-        <v>1169.970000</v>
+        <v>1169.97</v>
       </c>
       <c r="I21" s="1">
-        <v>-215.558000</v>
+        <v>-215.55799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>49188.796072</v>
+        <v>49188.796071999997</v>
       </c>
       <c r="L21" s="1">
         <v>13.663554</v>
       </c>
       <c r="M21" s="1">
-        <v>1197.780000</v>
+        <v>1197.78</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.895000</v>
+        <v>-149.89500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>49199.316182</v>
+        <v>49199.316182000002</v>
       </c>
       <c r="Q21" s="1">
         <v>13.666477</v>
       </c>
       <c r="R21" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.977000</v>
+        <v>-127.977</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>49209.772839</v>
+        <v>49209.772838999997</v>
       </c>
       <c r="V21" s="1">
         <v>13.669381</v>
       </c>
       <c r="W21" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.009000</v>
+        <v>-107.009</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>49220.335145</v>
+        <v>49220.335144999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>13.672315</v>
+        <v>13.672314999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1219.770000</v>
+        <v>1219.77</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.236700</v>
+        <v>-90.236699999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>49231.234732</v>
+        <v>49231.234731999997</v>
       </c>
       <c r="AF21" s="1">
         <v>13.675343</v>
       </c>
       <c r="AG21" s="1">
-        <v>1224.160000</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.775000</v>
+        <v>-85.775000000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>49242.069373</v>
+        <v>49242.069372999998</v>
       </c>
       <c r="AK21" s="1">
         <v>13.678353</v>
       </c>
       <c r="AL21" s="1">
-        <v>1231.320000</v>
+        <v>1231.32</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.570400</v>
+        <v>-89.570400000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>49252.929246</v>
@@ -5484,73 +5900,73 @@
         <v>13.681369</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1239.260000</v>
+        <v>1239.26</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.781000</v>
+        <v>-101.78100000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>49263.981104</v>
+        <v>49263.981103999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>13.684439</v>
+        <v>13.684438999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.300000</v>
+        <v>1249.3</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.421000</v>
+        <v>-121.42100000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>49275.049330</v>
+        <v>49275.049330000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>13.687514</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.830000</v>
+        <v>1257.83</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.133000</v>
+        <v>-139.13300000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>49286.048114</v>
+        <v>49286.048113999997</v>
       </c>
       <c r="BE21" s="1">
         <v>13.690569</v>
       </c>
       <c r="BF21" s="1">
-        <v>1298.250000</v>
+        <v>1298.25</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.812000</v>
+        <v>-221.81200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>49297.765108</v>
       </c>
       <c r="BJ21" s="1">
-        <v>13.693824</v>
+        <v>13.693823999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.385000</v>
+        <v>-359.38499999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>49309.050616</v>
@@ -5559,28 +5975,28 @@
         <v>13.696959</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.180000</v>
+        <v>1483.18</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-583.695000</v>
+        <v>-583.69500000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>49319.664506</v>
+        <v>49319.664506000001</v>
       </c>
       <c r="BT21" s="1">
         <v>13.699907</v>
       </c>
       <c r="BU21" s="1">
-        <v>1616.470000</v>
+        <v>1616.47</v>
       </c>
       <c r="BV21" s="1">
-        <v>-837.110000</v>
+        <v>-837.11</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>49330.523879</v>
@@ -5589,31 +6005,31 @@
         <v>13.702923</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1769.270000</v>
+        <v>1769.27</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1113.250000</v>
+        <v>-1113.25</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>49343.770071</v>
+        <v>49343.770070999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>13.706603</v>
+        <v>13.706602999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2190.340000</v>
+        <v>2190.34</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1780.500000</v>
+        <v>-1780.5</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>49168.506189</v>
       </c>
@@ -5621,43 +6037,43 @@
         <v>13.657918</v>
       </c>
       <c r="C22" s="1">
-        <v>1148.740000</v>
+        <v>1148.74</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.463000</v>
+        <v>-257.46300000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>49178.967809</v>
+        <v>49178.967809000002</v>
       </c>
       <c r="G22" s="1">
         <v>13.660824</v>
       </c>
       <c r="H22" s="1">
-        <v>1170.080000</v>
+        <v>1170.08</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.500000</v>
+        <v>-216.5</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>49189.141282</v>
+        <v>49189.141281999997</v>
       </c>
       <c r="L22" s="1">
-        <v>13.663650</v>
+        <v>13.663650000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1197.720000</v>
+        <v>1197.72</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.024000</v>
+        <v>-150.024</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>49199.663385</v>
@@ -5666,73 +6082,73 @@
         <v>13.666573</v>
       </c>
       <c r="R22" s="1">
-        <v>1205.350000</v>
+        <v>1205.3499999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.956000</v>
+        <v>-127.956</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>49210.205352</v>
+        <v>49210.205351999997</v>
       </c>
       <c r="V22" s="1">
         <v>13.669501</v>
       </c>
       <c r="W22" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.125000</v>
+        <v>-107.125</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>49221.034505</v>
+        <v>49221.034505000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>13.672510</v>
+        <v>13.672510000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1219.750000</v>
+        <v>1219.75</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.248100</v>
+        <v>-90.248099999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>49231.528054</v>
+        <v>49231.528054000002</v>
       </c>
       <c r="AF22" s="1">
         <v>13.675424</v>
       </c>
       <c r="AG22" s="1">
-        <v>1224.120000</v>
+        <v>1224.1199999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.926300</v>
+        <v>-85.926299999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>49242.415580</v>
+        <v>49242.415580000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.678449</v>
+        <v>13.678449000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1231.320000</v>
+        <v>1231.32</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.568700</v>
+        <v>-89.568700000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>49253.305709</v>
@@ -5741,43 +6157,43 @@
         <v>13.681474</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1239.280000</v>
+        <v>1239.28</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.801000</v>
+        <v>-101.801</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>49264.347647</v>
+        <v>49264.347647000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.684541</v>
+        <v>13.684540999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.410000</v>
+        <v>-121.41</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>49275.769025</v>
+        <v>49275.769025000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>13.687714</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.800000</v>
+        <v>1257.8</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.143000</v>
+        <v>-139.143</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>49286.766829</v>
@@ -5786,58 +6202,58 @@
         <v>13.690769</v>
       </c>
       <c r="BF22" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.831000</v>
+        <v>-221.83099999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>49298.139619</v>
+        <v>49298.139619000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.693928</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.310000</v>
+        <v>1368.31</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.381000</v>
+        <v>-359.38099999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>49309.470691</v>
+        <v>49309.470691000002</v>
       </c>
       <c r="BO22" s="1">
         <v>13.697075</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.180000</v>
+        <v>1483.18</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-583.667000</v>
+        <v>-583.66700000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>49320.095495</v>
+        <v>49320.095495000001</v>
       </c>
       <c r="BT22" s="1">
         <v>13.700027</v>
       </c>
       <c r="BU22" s="1">
-        <v>1616.440000</v>
+        <v>1616.44</v>
       </c>
       <c r="BV22" s="1">
-        <v>-837.244000</v>
+        <v>-837.24400000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>49331.257994</v>
@@ -5846,13 +6262,13 @@
         <v>13.703127</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1769.330000</v>
+        <v>1769.33</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1113.150000</v>
+        <v>-1113.1500000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>49343.965957</v>
@@ -5861,16 +6277,16 @@
         <v>13.706657</v>
       </c>
       <c r="CE22" s="1">
-        <v>2190.040000</v>
+        <v>2190.04</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1782.030000</v>
+        <v>-1782.03</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>49168.850413</v>
       </c>
@@ -5878,13 +6294,13 @@
         <v>13.658014</v>
       </c>
       <c r="C23" s="1">
-        <v>1148.540000</v>
+        <v>1148.54</v>
       </c>
       <c r="D23" s="1">
-        <v>-257.508000</v>
+        <v>-257.50799999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>49179.314047</v>
@@ -5893,73 +6309,73 @@
         <v>13.660921</v>
       </c>
       <c r="H23" s="1">
-        <v>1170.130000</v>
+        <v>1170.1300000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.850000</v>
+        <v>-215.85</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>49189.556401</v>
+        <v>49189.556401000002</v>
       </c>
       <c r="L23" s="1">
-        <v>13.663766</v>
+        <v>13.663766000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1197.770000</v>
+        <v>1197.77</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.057000</v>
+        <v>-150.05699999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>49200.091440</v>
+        <v>49200.091439999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.666692</v>
+        <v>13.666691999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.983000</v>
+        <v>-127.983</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>49210.474678</v>
+        <v>49210.474677999999</v>
       </c>
       <c r="V23" s="1">
-        <v>13.669576</v>
+        <v>13.669575999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.096000</v>
+        <v>-107.096</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>49221.381738</v>
+        <v>49221.381737999996</v>
       </c>
       <c r="AA23" s="1">
         <v>13.672606</v>
       </c>
       <c r="AB23" s="1">
-        <v>1219.650000</v>
+        <v>1219.6500000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.294000</v>
+        <v>-90.293999999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>49231.868123</v>
@@ -5968,43 +6384,43 @@
         <v>13.675519</v>
       </c>
       <c r="AG23" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.998800</v>
+        <v>-85.998800000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>49242.767211</v>
+        <v>49242.767210999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>13.678546</v>
+        <v>13.678546000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1231.290000</v>
+        <v>1231.29</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.623700</v>
+        <v>-89.623699999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>49254.001136</v>
+        <v>49254.001135999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.681667</v>
+        <v>13.681666999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1239.270000</v>
+        <v>1239.27</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.800000</v>
+        <v>-101.8</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>49265.071311</v>
@@ -6013,270 +6429,270 @@
         <v>13.684742</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.430000</v>
+        <v>-121.43</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>49276.130607</v>
+        <v>49276.130606999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>13.687814</v>
+        <v>13.687813999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.830000</v>
+        <v>1257.83</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.124000</v>
+        <v>-139.124</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>49287.163121</v>
+        <v>49287.163120999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.690879</v>
+        <v>13.690879000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1298.260000</v>
+        <v>1298.26</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.826000</v>
+        <v>-221.82599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>49298.515585</v>
+        <v>49298.515585000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>13.694032</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.376000</v>
+        <v>-359.37599999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>49310.173556</v>
+        <v>49310.173556000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>13.697270</v>
+        <v>13.69727</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.190000</v>
+        <v>1483.19</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-583.662000</v>
+        <v>-583.66200000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>49320.737853</v>
+        <v>49320.737852999999</v>
       </c>
       <c r="BT23" s="1">
         <v>13.700205</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.390000</v>
+        <v>1616.39</v>
       </c>
       <c r="BV23" s="1">
-        <v>-837.330000</v>
+        <v>-837.33</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>49331.427591</v>
       </c>
       <c r="BY23" s="1">
-        <v>13.703174</v>
+        <v>13.703174000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1769.140000</v>
+        <v>1769.14</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1112.940000</v>
+        <v>-1112.94</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>49344.490725</v>
+        <v>49344.490725000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>13.706803</v>
+        <v>13.706803000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2192.500000</v>
+        <v>2192.5</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1780.730000</v>
+        <v>-1780.73</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>49169.193682</v>
+        <v>49169.193681999997</v>
       </c>
       <c r="B24" s="1">
         <v>13.658109</v>
       </c>
       <c r="C24" s="1">
-        <v>1148.830000</v>
+        <v>1148.83</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.804000</v>
+        <v>-257.80399999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>49179.734623</v>
+        <v>49179.734622999997</v>
       </c>
       <c r="G24" s="1">
         <v>13.661037</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.440000</v>
+        <v>1170.44</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.796000</v>
+        <v>-215.79599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>49189.835650</v>
+        <v>49189.835650000001</v>
       </c>
       <c r="L24" s="1">
         <v>13.663843</v>
       </c>
       <c r="M24" s="1">
-        <v>1197.770000</v>
+        <v>1197.77</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.190000</v>
+        <v>-150.19</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>49200.367203</v>
+        <v>49200.367203000002</v>
       </c>
       <c r="Q24" s="1">
         <v>13.666769</v>
       </c>
       <c r="R24" s="1">
-        <v>1205.310000</v>
+        <v>1205.31</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.977000</v>
+        <v>-127.977</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>49210.820886</v>
+        <v>49210.820886000001</v>
       </c>
       <c r="V24" s="1">
         <v>13.669672</v>
       </c>
       <c r="W24" s="1">
-        <v>1212.460000</v>
+        <v>1212.46</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.214000</v>
+        <v>-107.214</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>49221.729931</v>
+        <v>49221.729931000002</v>
       </c>
       <c r="AA24" s="1">
         <v>13.672703</v>
       </c>
       <c r="AB24" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.295000</v>
+        <v>-90.295000000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>49232.212345</v>
       </c>
       <c r="AF24" s="1">
-        <v>13.675615</v>
+        <v>13.675615000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.953400</v>
+        <v>-85.953400000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>49243.465084</v>
+        <v>49243.465084000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.678740</v>
+        <v>13.678739999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1231.320000</v>
+        <v>1231.32</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.601600</v>
+        <v>-89.601600000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>49254.368668</v>
+        <v>49254.368668000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>13.681769</v>
+        <v>13.681768999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1239.280000</v>
+        <v>1239.28</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.802000</v>
+        <v>-101.80200000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>49265.466126</v>
+        <v>49265.466125999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>13.684852</v>
+        <v>13.684851999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.430000</v>
+        <v>-121.43</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>49276.487727</v>
@@ -6285,180 +6701,180 @@
         <v>13.687913</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.840000</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.115000</v>
+        <v>-139.11500000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>49287.864961</v>
+        <v>49287.864960999999</v>
       </c>
       <c r="BE24" s="1">
         <v>13.691074</v>
       </c>
       <c r="BF24" s="1">
-        <v>1298.250000</v>
+        <v>1298.25</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.833000</v>
+        <v>-221.833</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>49299.200531</v>
+        <v>49299.200531000002</v>
       </c>
       <c r="BJ24" s="1">
         <v>13.694222</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.366000</v>
+        <v>-359.36599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>49310.287108</v>
+        <v>49310.287107999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>13.697302</v>
+        <v>13.697302000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-583.618000</v>
+        <v>-583.61800000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>49320.938733</v>
+        <v>49320.938733000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.700261</v>
+        <v>13.700260999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.420000</v>
+        <v>1616.42</v>
       </c>
       <c r="BV24" s="1">
-        <v>-837.422000</v>
+        <v>-837.42200000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>49331.852467</v>
+        <v>49331.852466999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.703292</v>
+        <v>13.703291999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1769.190000</v>
+        <v>1769.19</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1112.980000</v>
+        <v>-1112.98</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>49345.024917</v>
+        <v>49345.024917000002</v>
       </c>
       <c r="CD24" s="1">
         <v>13.706951</v>
       </c>
       <c r="CE24" s="1">
-        <v>2190.180000</v>
+        <v>2190.1799999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1781.200000</v>
+        <v>-1781.2</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>49169.624668</v>
+        <v>49169.624667999997</v>
       </c>
       <c r="B25" s="1">
         <v>13.658229</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.750000</v>
+        <v>1148.75</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.485000</v>
+        <v>-257.48500000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>49180.007920</v>
+        <v>49180.007919999996</v>
       </c>
       <c r="G25" s="1">
         <v>13.661113</v>
       </c>
       <c r="H25" s="1">
-        <v>1170.540000</v>
+        <v>1170.54</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.880000</v>
+        <v>-215.88</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>49190.177889</v>
+        <v>49190.177888999999</v>
       </c>
       <c r="L25" s="1">
         <v>13.663938</v>
       </c>
       <c r="M25" s="1">
-        <v>1197.620000</v>
+        <v>1197.6199999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.913000</v>
+        <v>-149.91300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>49200.714206</v>
+        <v>49200.714205999997</v>
       </c>
       <c r="Q25" s="1">
         <v>13.666865</v>
       </c>
       <c r="R25" s="1">
-        <v>1205.250000</v>
+        <v>1205.25</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.859000</v>
+        <v>-127.85899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>49211.162629</v>
+        <v>49211.162628999999</v>
       </c>
       <c r="V25" s="1">
         <v>13.669767</v>
       </c>
       <c r="W25" s="1">
-        <v>1212.460000</v>
+        <v>1212.46</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.283000</v>
+        <v>-107.283</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>49222.427271</v>
@@ -6467,148 +6883,148 @@
         <v>13.672896</v>
       </c>
       <c r="AB25" s="1">
-        <v>1219.670000</v>
+        <v>1219.67</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.264700</v>
+        <v>-90.264700000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>49232.897357</v>
+        <v>49232.897357000002</v>
       </c>
       <c r="AF25" s="1">
         <v>13.675805</v>
       </c>
       <c r="AG25" s="1">
-        <v>1224.270000</v>
+        <v>1224.27</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.894600</v>
+        <v>-85.894599999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>49243.811819</v>
+        <v>49243.811819000002</v>
       </c>
       <c r="AK25" s="1">
         <v>13.678837</v>
       </c>
       <c r="AL25" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.576100</v>
+        <v>-89.576099999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>49254.730717</v>
+        <v>49254.730716999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>13.681870</v>
+        <v>13.68187</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1239.270000</v>
+        <v>1239.27</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.779000</v>
+        <v>-101.779</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>49265.828702</v>
+        <v>49265.828701999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>13.684952</v>
+        <v>13.684951999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.300000</v>
+        <v>1249.3</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.428000</v>
+        <v>-121.428</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>49277.154846</v>
+        <v>49277.154845999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>13.688099</v>
+        <v>13.688098999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.800000</v>
+        <v>1257.8</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.113000</v>
+        <v>-139.113</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>49288.256304</v>
+        <v>49288.256304000002</v>
       </c>
       <c r="BE25" s="1">
         <v>13.691182</v>
       </c>
       <c r="BF25" s="1">
-        <v>1298.260000</v>
+        <v>1298.26</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.813000</v>
+        <v>-221.81299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>49299.641504</v>
+        <v>49299.641503999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>13.694345</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.417000</v>
+        <v>-359.41699999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>49310.709698</v>
+        <v>49310.709697999999</v>
       </c>
       <c r="BO25" s="1">
         <v>13.697419</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-583.648000</v>
+        <v>-583.64800000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>49321.368755</v>
+        <v>49321.368755000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>13.700380</v>
+        <v>13.700379999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.250000</v>
+        <v>1616.25</v>
       </c>
       <c r="BV25" s="1">
-        <v>-837.455000</v>
+        <v>-837.45500000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>49332.301045</v>
@@ -6617,287 +7033,288 @@
         <v>13.703417</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1769.290000</v>
+        <v>1769.29</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1113.180000</v>
+        <v>-1113.18</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>49345.567915</v>
       </c>
       <c r="CD25" s="1">
-        <v>13.707102</v>
+        <v>13.707102000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2191.850000</v>
+        <v>2191.85</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1782.010000</v>
+        <v>-1782.01</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>49169.891517</v>
+        <v>49169.891516999996</v>
       </c>
       <c r="B26" s="1">
         <v>13.658303</v>
       </c>
       <c r="C26" s="1">
-        <v>1148.440000</v>
+        <v>1148.44</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.524000</v>
+        <v>-257.524</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>49180.353134</v>
+        <v>49180.353133999997</v>
       </c>
       <c r="G26" s="1">
-        <v>13.661209</v>
+        <v>13.661208999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.580000</v>
+        <v>1169.58</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.129000</v>
+        <v>-216.12899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>49190.524097</v>
+        <v>49190.524097000001</v>
       </c>
       <c r="L26" s="1">
-        <v>13.664034</v>
+        <v>13.664033999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1197.650000</v>
+        <v>1197.6500000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.173000</v>
+        <v>-150.173</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>49201.061604</v>
+        <v>49201.061604000002</v>
       </c>
       <c r="Q26" s="1">
         <v>13.666962</v>
       </c>
       <c r="R26" s="1">
-        <v>1205.350000</v>
+        <v>1205.3499999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.985000</v>
+        <v>-127.985</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>49211.849590</v>
+        <v>49211.849589999998</v>
       </c>
       <c r="V26" s="1">
-        <v>13.669958</v>
+        <v>13.669957999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1212.340000</v>
+        <v>1212.3399999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.183000</v>
+        <v>-107.18300000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>49222.773510</v>
+        <v>49222.773509999999</v>
       </c>
       <c r="AA26" s="1">
         <v>13.672993</v>
       </c>
       <c r="AB26" s="1">
-        <v>1219.660000</v>
+        <v>1219.6600000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.258400</v>
+        <v>-90.258399999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>49233.240589</v>
+        <v>49233.240589000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.675900</v>
+        <v>13.6759</v>
       </c>
       <c r="AG26" s="1">
-        <v>1224.270000</v>
+        <v>1224.27</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.917800</v>
+        <v>-85.9178</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>49244.160970</v>
+        <v>49244.160969999997</v>
       </c>
       <c r="AK26" s="1">
         <v>13.678934</v>
       </c>
       <c r="AL26" s="1">
-        <v>1231.300000</v>
+        <v>1231.3</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.569300</v>
+        <v>-89.569299999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>49255.398330</v>
+        <v>49255.398330000004</v>
       </c>
       <c r="AP26" s="1">
         <v>13.682055</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1239.270000</v>
+        <v>1239.27</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.797000</v>
+        <v>-101.797</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>49266.500782</v>
+        <v>49266.500782000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.685139</v>
+        <v>13.685138999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.300000</v>
+        <v>1249.3</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.420000</v>
+        <v>-121.42</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>49277.564077</v>
+        <v>49277.564077000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>13.688212</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.810000</v>
+        <v>1257.81</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.125000</v>
+        <v>-139.125</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>49288.616894</v>
+        <v>49288.616893999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.691282</v>
+        <v>13.691281999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.822000</v>
+        <v>-221.822</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>49300.015951</v>
+        <v>49300.015951000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>13.694449</v>
+        <v>13.694449000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.368000</v>
+        <v>-359.36799999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>49311.107986</v>
+        <v>49311.107986000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>13.697530</v>
+        <v>13.69753</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-583.620000</v>
+        <v>-583.62</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>49321.793828</v>
+        <v>49321.793828000002</v>
       </c>
       <c r="BT26" s="1">
         <v>13.700498</v>
       </c>
       <c r="BU26" s="1">
-        <v>1616.310000</v>
+        <v>1616.31</v>
       </c>
       <c r="BV26" s="1">
-        <v>-837.558000</v>
+        <v>-837.55799999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>49332.733060</v>
+        <v>49332.733059999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>13.703537</v>
+        <v>13.703537000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1769.290000</v>
+        <v>1769.29</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1113.060000</v>
+        <v>-1113.06</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>49346.108180</v>
+        <v>49346.108180000003</v>
       </c>
       <c r="CD26" s="1">
         <v>13.707252</v>
       </c>
       <c r="CE26" s="1">
-        <v>2191.500000</v>
+        <v>2191.5</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1779.810000</v>
+        <v>-1779.81</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>